--- a/Data/script_data_test_1_test_data.xlsx
+++ b/Data/script_data_test_1_test_data.xlsx
@@ -412,18 +412,18 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" t="str">
-        <v>Demo123dasd</v>
+        <v>asdasda</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="str">
-        <v>asdaasdasd</v>
+        <v>hahsjdjas</v>
       </c>
     </row>
   </sheetData>
